--- a/Bot_screening/cumulative_changes_forward_3.xlsx
+++ b/Bot_screening/cumulative_changes_forward_3.xlsx
@@ -38,1717 +38,1717 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00CC9FD5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00B02226"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0034D10E"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00B86DCF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00221FB6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00C655F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00EF71CD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00EEBB23"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E73CF1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0052F186"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="009F2BDE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E9D519"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0020AC36"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="002CD567"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="002AEE46"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="006B8368"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F138D3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0093E84D"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0011474E"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D1D3F6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0063B7C8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00DF1599"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D5A340"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00661A81"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00430B64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E03F26"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00584CA6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="007264C1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="002AA24E"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0004C377"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0086A2E7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0065DCBE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="003710DE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="007CDAAD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F02C36"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="007011B0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00C2096D"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="003D4A05"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="008E2D48"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00C1E207"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0061506A"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="002ACCDE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F3A270"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00AC930A"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0052B257"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="000111F4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F1F687"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00272AC9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="003A64AD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="004109BA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00C6C406"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="003D6A5D"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00960E0E"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00C60969"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="004BD32C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0054FCED"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0095DA0F"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00083AFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00C9A1EF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00857C20"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="000D7433"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="004426DA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E1A730"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00CBC35E"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00AABC58"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="009524BA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00B1ED13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00EDA59B"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0012C60F"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FE56DD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00585826"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00557A49"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="000D83E5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0028F5FC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D0454B"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0021A942"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00A3EB0E"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00B491E2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="001FD7CC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D2A6AF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00DED8A7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="009E2D4F"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="009A1A70"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00DA17DC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="007C55A5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00974869"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="003A89D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00AD4D69"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="001971C0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00576498"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="005E799E"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="002DAB37"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="008D5E5E"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00EE0912"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="001CF3AC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00490F33"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="003A7550"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00348436"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F28A41"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="000C546C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="007A1CA8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="002015FF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00B767BA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D25FDC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E9525C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="007402C6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="000D42A0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0048699D"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="003E96A1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="000B8544"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="004439AC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="006ABE52"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="001A5C6E"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00A7848C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0018604F"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00A6BCFC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00188858"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FE474E"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00012F2E"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0033C478"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00691CEE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="004B7265"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00762F2B"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00C91DAF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00622477"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00BC04E4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="006052FB"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00494D17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00156253"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="009C2705"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0086F154"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="002D5691"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00DD88A9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0084985E"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D8CB7E"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0022D9BF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="009AA22E"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FF74D3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00534A37"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00DCDD35"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="009BB22B"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="003C5439"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0028722E"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ECA954"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0028D0E5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="003405BE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00C72D56"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00A7DC1B"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="002DEFF0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="001AC0EF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="006A6C69"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00648DC0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0000665F"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00831632"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00EA4D1E"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="006B5B20"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0056CA5E"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00AA6D0E"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D4F56D"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00A9A7BB"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="002BFE69"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00DCA9B1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F3EE00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="005B21F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="002FCA48"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="002A8AF5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="001B23C3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="002F7864"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00019097"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="006ACCAA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FF7EE9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00B2A1FE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E83855"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="002BF75D"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00DF278F"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="001FE163"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00CF97C8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="005E68E9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00C501AF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00EB5F69"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00866764"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00B08C4B"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E121FF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0026E6A1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00991AE5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E1EB2D"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="001E14DC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D7ADE9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="005D4B28"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00A7101C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="001CD87B"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0009F996"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="001BD7E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00CC9FDB"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="006B9469"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="005650E4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D32ACD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00AADFE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00A150D2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0064D948"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="009200AD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00EF1E57"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E520C3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00DDDDCB"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00BC4321"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E410B3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E20448"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00600AE3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="003A9C4B"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00168C9A"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00A077C0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0009C312"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="001EE4E5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="002029C4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00475B98"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="003B9A9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00682FF6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="003B322F"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="005BDF48"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="000AB72D"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0081A44E"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0015D23A"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00CE46C6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="002E3AC0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="003E4FF5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="000AB9FE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="007EFEEF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00DFAD6C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00A89D47"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="008C59CF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F51067"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="007357B6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="009BCA66"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00A3191A"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00A1029D"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D2AD65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E46CDE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="001AA388"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E6FC35"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00C8220B"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0074AE68"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0009761F"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00DD151B"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="005A976F"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00DAF472"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00BA041E"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="003F3B8C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="008D7DD6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00009B8A"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="009CC392"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D78CD2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00A4C4AE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="008CBEBB"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="008CDB1B"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="009F4180"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E55E37"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0096D681"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="004D7550"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="003FC8BF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0018D682"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0015E271"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00B1039C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00A112F0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0022315B"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00BE1A05"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="007D0213"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F0AE13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="009CB253"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D9CA14"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00AA90FE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00A040F7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00A686C8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="004FD854"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00DECE40"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0066BBDD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0003169E"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00A9CE01"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="002A9782"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FDEA6E"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00AB9245"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00BEC7E0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00B72A3B"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00C7CCD4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="001B42F1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0071772D"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00134455"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00A2F11B"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00A5D3E5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00B99F3D"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="000DC94C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00C1993E"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="006E2991"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="002B3739"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00B53742"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00679F34"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00820FFB"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="004D3989"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FAA84F"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F080BA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0042A5A4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0030FCC8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="002D3F9F"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0093697B"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00C8ABBC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00240FB4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00C134BE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FCCE90"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="000917F7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="009A6177"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0067D928"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F03D0E"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0095B15E"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="000D3F18"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="000F9A1E"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="004BDCF5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00382646"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00B7ADEB"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="005B981C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0030C735"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00DE8E58"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="007D7801"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0016FEDD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E93024"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00311AC7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FA2B4C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="003BB3CD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="008C0096"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00DC5C54"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0035348B"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00C73952"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00B69473"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00CC3D91"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="000FCC4A"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0068EC60"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="001DA651"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0084BF43"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00BFB163"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00BC9627"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="003B9060"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="005868CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00903BE0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00417802"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00C37E2E"/>
+        <fgColor rgb="006767A1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B392D1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FEA424"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F51738"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00733AD9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="005154B9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E1B7D2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00211E42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C2023E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="000C1803"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0005B61C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B995FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A005CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="004E52B8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="007BBB28"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C8B818"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00773F6A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0058B453"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="003C7FB5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="005E5208"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0091E193"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00885DFE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B159CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="005F0129"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="004A60B5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="001EB488"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00493872"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0093BBE6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00201313"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="006F0A94"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0045FE02"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0063CB44"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00310EB2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F765B4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00073348"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00554D82"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0067F7D4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0083E21D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0005E425"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F7C5E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="009E7F4D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DB71C4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="003BCE6A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E62D33"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="004AD6AC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00449CBC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFCB3A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A4FEF9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="004C28A8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0083E8B6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E692AC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F881D2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FC09D6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="003AB777"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00AD5325"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F22957"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D39C67"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00378B21"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A9A5B6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CDB03A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00133AE7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="004AEC72"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00686D40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D25C3D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00EEA62E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="004CACE1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="007A1C7E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B70D3B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0059969F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CCEC45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="006A34EC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="005345A3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0054B695"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A1D224"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0084FF74"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="000323EA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0070EB1A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E05530"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="002B3A0E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0036FAE6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0056614A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CBC388"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B18640"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="006F4E65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A87D6C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FE58C3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0051AA39"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00453744"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008C296B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="007335BC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00AB420E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0016E2BD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="000283BB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B6AE13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="003AC01E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E9AE9D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C77D63"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F69F66"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ADEFA4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E6E3EE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00086DCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00326BBB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF979A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E4BADD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0002A296"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0064F341"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="006A0537"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00877406"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="002D875F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00AB82CB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B9B9F6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="000ECEE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="004AEF95"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="006D02C9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D2EB6E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00AA1CF6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="002E4C7A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E4C7F8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="009D008A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C75635"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0024A83E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008A8D6C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0099D01C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0005EBAD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00EA83C9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00947BA9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00AB6C29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="007AEC37"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00106849"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008E270B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0012E410"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FC73C7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FED5A1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00000674"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0046411B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CFF7E5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D23893"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B22AA1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00143787"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B356FD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00318C71"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DAB9C4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C28E41"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A5175B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00783E05"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A78D03"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0000C44E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B3D2E0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="000C32D3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E89F26"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00470E99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0000653D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F6169D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="002358CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="003A9D08"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B00D7A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="007057A3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A23674"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0018DB5A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0097E84C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B620B9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00080F52"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="002BB406"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="006C2CB0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00889F75"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00238A2B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F6C6D6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="004BFD6D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F603A9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="001AEC7F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B9F4F3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E0CDD4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C4BD6E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0086D2A6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00AB545D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00400627"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F1F764"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00304AEA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="007C42F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00BA9B62"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00759175"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0044E16A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="001F389E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00EBB698"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00EDE7EB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A8C58E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008017D5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D26D96"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F89B9F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008150B2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="003B4806"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="004A92DA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00BFAB09"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00591436"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0077D5E8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C76C9A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0002D382"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0089C01D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0015F49F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CD7E11"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0094C09C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="007881EF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="007BD16E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0054F65E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DC69FE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FEF2B7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="005949AC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00428322"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008BB6DB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A75424"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C615B8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C9D95D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00168313"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0031756F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0024CEE4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0076F55E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DC52B2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0024C71A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00AE0A99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="000FF9EA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="009676B9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0071A046"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CAE6B6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00070300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="009AEC11"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="000743A9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A97A38"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="006CB231"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="003D2A1E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="002241FE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E4D379"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00929383"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="003B15BC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F16374"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E1CC9A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="002A14B7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="004CA1D6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B2166C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="001332F5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00921E57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00887BF0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00850CBE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008EC319"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0067D031"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00731393"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="004830B6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0003D857"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0095ECAD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E3609A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0056AEAC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="001FAF9F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="005747B2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E85429"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00219916"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="000C32BF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A1B4EA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0071E734"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00437F89"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="009DD413"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0028E8B8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="006EF8E4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00507A8F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0077BF9A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="003E8193"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E81963"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F1B5F1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0047F059"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008C73A3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00EA675E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00EEBA4F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A1CA52"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0029D8D5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0058223A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00BBCCCB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00EAC90E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0033ED5F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00270626"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00757747"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0003FF9E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0068975A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="000CC8DD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F89B10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00410007"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00159548"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="006B3A5B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00637CCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B1930F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F45929"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A6E130"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="000409CA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0074E8FD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D3FEC3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="001BB9E5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="004A47B6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF436B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="000FB937"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FCB5D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DE83A6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0016F82B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008B8D2E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00AA0037"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0010DBCD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0080DD40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C7A0D6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CEBC14"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0051FC90"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C1AE54"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0017CC55"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0042AAEB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00854750"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008B7733"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E67E6D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00EF93A2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00159EEE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0029A8BA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="004724EE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A974C5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B3A9C0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="007162A9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B5A1D4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DE5F32"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="002887B9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B359D4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0098D496"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D57BC4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DDA7BB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C59F20"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0011AA58"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="009B9E87"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="009FC5FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="007FDB5B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D92D0A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0073CC02"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0069E103"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A6C1A0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0000F659"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="003835BF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0035D33D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00192E59"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="000A8C34"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00019DFB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="004BB9E2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="005D791C"/>
       </patternFill>
     </fill>
   </fills>
